--- a/java/project-JavaBank/data.xlsx
+++ b/java/project-JavaBank/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198104A6-A29D-449E-99A0-456FB01016BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927350A9-BDEB-4D0D-B6CB-E536AEC9FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="781" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="BS" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Account!$A$1:$K$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">interestRate!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="237">
   <si>
     <t>customerId</t>
   </si>
@@ -538,24 +539,6 @@
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Loans</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>Savings</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <t>cus11</t>
   </si>
   <si>
@@ -778,27 +761,6 @@
     <t>transactionId</t>
   </si>
   <si>
-    <t xml:space="preserve">Total outstanding loan balance:                   VND           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total outstanding deposit balance:                VND            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average interest rate on loans:                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average interest rate on deposits:                                             </t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>rank</t>
   </si>
   <si>
@@ -818,6 +780,18 @@
   </si>
   <si>
     <t>isActive</t>
+  </si>
+  <si>
+    <t>loanxrate</t>
+  </si>
+  <si>
+    <t>depbal</t>
+  </si>
+  <si>
+    <t>loanbal</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -829,18 +803,11 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -941,14 +908,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -969,37 +928,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1255,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1366,8 +1319,8 @@
       <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>224</v>
+      <c r="F6" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="G6" t="s">
         <v>85</v>
@@ -1409,8 +1362,8 @@
       <c r="D8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>188</v>
+      <c r="E8" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
@@ -1432,8 +1385,8 @@
       <c r="D9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>189</v>
+      <c r="E9" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
@@ -1455,8 +1408,8 @@
       <c r="D10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>190</v>
+      <c r="E10" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1478,8 +1431,8 @@
       <c r="D11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>191</v>
+      <c r="E11" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1496,13 +1449,13 @@
         <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>192</v>
+        <v>167</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1519,13 +1472,13 @@
         <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>193</v>
+        <v>168</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1542,16 +1495,16 @@
         <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>224</v>
+        <v>169</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="G14" t="s">
         <v>85</v>
@@ -1565,13 +1518,13 @@
         <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>195</v>
+        <v>170</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1588,13 +1541,13 @@
         <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>196</v>
+        <v>171</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1611,13 +1564,13 @@
         <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>197</v>
+        <v>172</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1634,13 +1587,13 @@
         <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>198</v>
+        <v>173</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1657,16 +1610,16 @@
         <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>224</v>
+        <v>174</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -1680,13 +1633,13 @@
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1703,13 +1656,13 @@
         <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>201</v>
+        <v>176</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1726,13 +1679,13 @@
         <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>202</v>
+        <v>177</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1749,13 +1702,13 @@
         <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>203</v>
+        <v>178</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1772,13 +1725,13 @@
         <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>204</v>
+        <v>179</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -1795,13 +1748,13 @@
         <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>205</v>
+        <v>180</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -1818,13 +1771,13 @@
         <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>206</v>
+        <v>181</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1834,7 +1787,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1866,34 +1819,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>230</v>
+      <c r="G1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -1903,7 +1856,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B36">
     <sortCondition ref="B1:B36"/>
   </sortState>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1914,7 +1867,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1929,26 +1882,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>245</v>
+      <c r="E1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1961,7 +1914,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="b">
@@ -1976,513 +1929,155 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
-  <dimension ref="B2:O27"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="K2">
-        <f>MAX(L:L)</f>
-        <v>17</v>
-      </c>
-      <c r="L2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="M2">
-        <f>IF(L2&lt;$K$3+1,1,IF(L2&lt;$K$3+$K$4+1,2,3))</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="6">
-        <f>60%/$K$3</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O2" s="23">
-        <f>N2*$I$21</f>
-        <v>46463499.39999865</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="8">
-        <f>C5-C4</f>
-        <v>481809789923.08008</v>
-      </c>
-      <c r="J3" s="25" t="s">
+      <c r="C3" s="7">
+        <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B3)</f>
+        <v>8926627936.0000019</v>
+      </c>
+      <c r="D3" s="7">
+        <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B3)</f>
+        <v>496999709.68000001</v>
+      </c>
+      <c r="E3" s="7">
+        <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B3)</f>
+        <v>258181929000</v>
+      </c>
+      <c r="F3" s="7">
+        <f>+D3+E3</f>
+        <v>258678928709.67999</v>
+      </c>
+      <c r="G3" s="7">
+        <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B3)</f>
+        <v>79263082000</v>
+      </c>
+      <c r="H3" s="20">
+        <f>0.7*C3+0.2*F3+0.1*G3</f>
+        <v>65910733497.136002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B4)</f>
+        <v>9588153759.0000019</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B4)</f>
+        <v>399359421.6400001</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B4)</f>
+        <v>159896170000</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F5" si="0">+D4+E4</f>
+        <v>160295529421.64001</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B4)</f>
+        <v>87465481000</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H5" si="1">0.7*C4+0.2*F4+0.1*G4</f>
+        <v>47517361615.628006</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B5)</f>
+        <v>14546605580.500004</v>
+      </c>
+      <c r="D5" s="7">
+        <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B5)</f>
+        <v>467041021.71999997</v>
+      </c>
+      <c r="E5" s="7">
+        <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B5)</f>
+        <v>82167252000</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>82634293021.720001</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B5)</f>
+        <v>148128195000</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="1"/>
+        <v>41522302010.694</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
         <v>236</v>
       </c>
-      <c r="K3">
-        <f>ROUNDUP(K2/3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="L3">
+      <c r="J11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <f>MAX(1,ROUNDDOWN(J11/3,0))</f>
         <v>2</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M18" si="0">IF(L3&lt;$K$3+1,1,IF(L3&lt;$K$3+$K$4+1,2,3))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
-        <f>N2</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O3" s="23">
-        <f t="shared" ref="O3:O23" si="1">N3*$I$21</f>
-        <v>46463499.39999865</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="7">
-        <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE")</f>
-        <v>319856758000</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="K4">
-        <f>K3</f>
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" ref="N4:N7" si="2">N3</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O4" s="23">
-        <f t="shared" si="1"/>
-        <v>46463499.39999865</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="7">
-        <f>C9</f>
-        <v>801666547923.08008</v>
-      </c>
-      <c r="F5" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="K5">
-        <f>K2-K3-K4</f>
-        <v>5</v>
-      </c>
-      <c r="L5">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="C13" s="7">
+        <v>160295529421.64001</v>
+      </c>
+      <c r="J13">
+        <f>J12*2</f>
         <v>4</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O5" s="23">
-        <f t="shared" si="1"/>
-        <v>46463499.39999865</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="7">
-        <f>SUM(Account!I:I)</f>
-        <v>1421196923.0799999</v>
-      </c>
-      <c r="F6" t="s">
-        <v>234</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O6" s="23">
-        <f t="shared" si="1"/>
-        <v>46463499.39999865</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="7">
-        <f>SUM(Saving!I:I)</f>
-        <v>500245351000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="O7" s="23">
-        <f t="shared" si="1"/>
-        <v>46463499.39999865</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="7">
-        <v>300000000000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <f>J11-J12-J13</f>
         <v>2</v>
-      </c>
-      <c r="N8" s="6">
-        <f>30%/$K$4</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="O8" s="23">
-        <f t="shared" si="1"/>
-        <v>23231749.699999325</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="8">
-        <f>SUM(C6:C8)</f>
-        <v>801666547923.08008</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="6">
-        <f>N8</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="O9" s="23">
-        <f t="shared" si="1"/>
-        <v>23231749.699999325</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10:N13" si="3">N9</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="O10" s="23">
-        <f t="shared" si="1"/>
-        <v>23231749.699999325</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="3"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="O11" s="23">
-        <f t="shared" si="1"/>
-        <v>23231749.699999325</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="3"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="O12" s="23">
-        <f t="shared" si="1"/>
-        <v>23231749.699999325</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G13" s="21">
-        <v>319856758000</v>
-      </c>
-      <c r="I13" s="7">
-        <f>G13*G14</f>
-        <v>33648930941.600002</v>
-      </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="3"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="O13" s="23">
-        <f t="shared" si="1"/>
-        <v>23231749.699999325</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G14" s="22">
-        <v>0.1052</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N14" s="6">
-        <f>10%/$K$5</f>
-        <v>0.02</v>
-      </c>
-      <c r="O14" s="23">
-        <f t="shared" si="1"/>
-        <v>9292699.8799997307</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G15" s="21">
-        <v>501666547923.08002</v>
-      </c>
-      <c r="I15" s="7">
-        <f>G15*G16</f>
-        <v>27390993516.60017</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N15" s="6">
-        <f>N14</f>
-        <v>0.02</v>
-      </c>
-      <c r="O15" s="23">
-        <f t="shared" si="1"/>
-        <v>9292699.8799997307</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G16" s="22">
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="I16" s="7">
-        <f>I13-I15</f>
-        <v>6257937424.9998322</v>
-      </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" ref="N16:N18" si="4">N15</f>
-        <v>0.02</v>
-      </c>
-      <c r="O16" s="23">
-        <f t="shared" si="1"/>
-        <v>9292699.8799997307</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I17" s="8">
-        <f>G27*12</f>
-        <v>450000000</v>
-      </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="O17" s="23">
-        <f t="shared" si="1"/>
-        <v>9292699.8799997307</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="7">
-        <v>1421196923.0799999</v>
-      </c>
-      <c r="I18" s="8">
-        <f>I16-I17</f>
-        <v>5807937424.9998322</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="O18" s="23">
-        <f t="shared" si="1"/>
-        <v>9292699.8799997307</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I19" s="24">
-        <f>I18*10%</f>
-        <v>580793742.49998319</v>
-      </c>
-      <c r="N19" s="26">
-        <f>SUM(N2:N18)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="I20" s="23">
-        <f>20%*I19</f>
-        <v>116158748.49999665</v>
-      </c>
-      <c r="O20" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G21" s="7">
-        <v>7000000</v>
-      </c>
-      <c r="H21" s="8">
-        <f>G21*12</f>
-        <v>84000000</v>
-      </c>
-      <c r="I21" s="23">
-        <f>I19-I20</f>
-        <v>464634993.99998653</v>
-      </c>
-      <c r="O21" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G22" s="7">
-        <v>7500000</v>
-      </c>
-      <c r="H22" s="8">
-        <f>G22*12</f>
-        <v>90000000</v>
-      </c>
-      <c r="O22" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G23" s="7">
-        <v>6000000</v>
-      </c>
-      <c r="H23" s="8">
-        <f>G23*12</f>
-        <v>72000000</v>
-      </c>
-      <c r="O23" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G26" s="7">
-        <v>17000000</v>
-      </c>
-      <c r="H26" s="8">
-        <f>G26*12</f>
-        <v>204000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="G27" s="8">
-        <f>SUM(G21:G26)</f>
-        <v>37500000</v>
-      </c>
-      <c r="H27" s="8">
-        <f>G27*12</f>
-        <v>450000000</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2533,13 +2128,13 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
@@ -2657,10 +2252,10 @@
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -2839,7 +2434,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -2856,7 +2451,7 @@
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2873,7 +2468,7 @@
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2890,7 +2485,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2907,7 +2502,7 @@
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -2924,7 +2519,7 @@
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2941,7 +2536,7 @@
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -2958,7 +2553,7 @@
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2975,7 +2570,7 @@
       <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2992,7 +2587,7 @@
       <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -3009,7 +2604,7 @@
       <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -3026,7 +2621,7 @@
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -3043,7 +2638,7 @@
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -3060,7 +2655,7 @@
       <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -3077,7 +2672,7 @@
       <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -3094,7 +2689,7 @@
       <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>30</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3111,7 +2706,7 @@
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>49</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -3128,7 +2723,7 @@
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3145,7 +2740,7 @@
       <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -4201,7 +3796,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4212,7 +3807,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+      <selection activeCell="I2" sqref="I2:I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4246,8 +3841,8 @@
       <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>208</v>
+      <c r="F1" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>75</v>
@@ -4648,7 +4243,7 @@
         <v>43422</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H14">
         <v>323</v>
@@ -4679,7 +4274,7 @@
         <v>41168</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H15">
         <v>210</v>
@@ -4710,7 +4305,7 @@
         <v>40835</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H16">
         <v>490</v>
@@ -4741,7 +4336,7 @@
         <v>44123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H17">
         <v>481</v>
@@ -4772,7 +4367,7 @@
         <v>41981</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H18">
         <v>287</v>
@@ -4803,7 +4398,7 @@
         <v>41004</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H19">
         <v>491</v>
@@ -6003,7 +5598,7 @@
         <v>43277</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H58">
         <v>646</v>
@@ -6031,7 +5626,7 @@
         <v>44312</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H59">
         <v>676</v>
@@ -6062,7 +5657,7 @@
         <v>44407</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H60">
         <v>643</v>
@@ -6093,7 +5688,7 @@
         <v>44225</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H61">
         <v>710</v>
@@ -6124,7 +5719,7 @@
         <v>43860</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H62">
         <v>555</v>
@@ -6155,7 +5750,7 @@
         <v>43148</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H63">
         <v>445</v>
@@ -6186,7 +5781,7 @@
         <v>44407</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H64">
         <v>44</v>
@@ -6217,7 +5812,7 @@
         <v>43845</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H65">
         <v>242</v>
@@ -6248,7 +5843,7 @@
         <v>43287</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H66">
         <v>83</v>
@@ -6279,7 +5874,7 @@
         <v>43744</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H67">
         <v>990</v>
@@ -6310,7 +5905,7 @@
         <v>43209</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H68">
         <v>973</v>
@@ -6341,7 +5936,7 @@
         <v>43609</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H69">
         <v>658</v>
@@ -6372,7 +5967,7 @@
         <v>43615</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H70">
         <v>814</v>
@@ -6403,7 +5998,7 @@
         <v>43638</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H71">
         <v>656</v>
@@ -6434,7 +6029,7 @@
         <v>44272</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H72">
         <v>90</v>
@@ -6465,7 +6060,7 @@
         <v>43325</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H73">
         <v>470</v>
@@ -6493,7 +6088,7 @@
         <v>44237</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H74">
         <v>740</v>
@@ -6524,7 +6119,7 @@
         <v>43356</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H75">
         <v>426</v>
@@ -6555,7 +6150,7 @@
         <v>43771</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H76">
         <v>389</v>
@@ -6573,7 +6168,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <autoFilter ref="A1:K76" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6581,15 +6177,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="M2" sqref="M2:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -6601,10 +6197,11 @@
     <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B1" t="s">
@@ -6619,8 +6216,8 @@
       <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>208</v>
+      <c r="F1" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>75</v>
@@ -6637,12 +6234,12 @@
       <c r="K1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="19">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -6679,9 +6276,13 @@
         <f>VLOOKUP(B2,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="19">
+      <c r="M2" s="20">
+        <f>J2*I2</f>
+        <v>348000000.00000012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -6721,9 +6322,13 @@
         <f>VLOOKUP(B3,Customer!$A$2:$F$26,6)</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="19">
+      <c r="M3" s="20">
+        <f t="shared" ref="M3:M21" si="1">J3*I3</f>
+        <v>1330000000.0000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -6763,9 +6368,13 @@
         <f>VLOOKUP(B4,Customer!$A$2:$F$26,6)</f>
         <v>C</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="19">
+      <c r="M4" s="20">
+        <f t="shared" si="1"/>
+        <v>1708000000.0000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -6791,16 +6400,20 @@
         <f>IF(K5="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G5,interestRate!$D:$D,Loan!F5,interestRate!$E:$E,Loan!L5))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>222</v>
+      <c r="K5" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="19">
+      <c r="M5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -6826,16 +6439,20 @@
         <f>IF(K6="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G6,interestRate!$D:$D,Loan!F6,interestRate!$E:$E,Loan!L6))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>222</v>
+      <c r="K6" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(B6,Customer!$A$2:$F$26,6)</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="19">
+      <c r="M6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -6875,9 +6492,13 @@
         <f>VLOOKUP(B7,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="19">
+      <c r="M7" s="20">
+        <f t="shared" si="1"/>
+        <v>1188000000.0000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -6917,9 +6538,13 @@
         <f>VLOOKUP(B8,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="19">
+      <c r="M8" s="20">
+        <f t="shared" si="1"/>
+        <v>605922989.50000012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -6959,9 +6584,13 @@
         <f>VLOOKUP(B9,Customer!$A$2:$F$26,6)</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="19">
+      <c r="M9" s="20">
+        <f t="shared" si="1"/>
+        <v>1020627936.0000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -6987,16 +6616,20 @@
         <f>IF(K10="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G10,interestRate!$D:$D,Loan!F10,interestRate!$E:$E,Loan!L10))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>222</v>
+      <c r="K10" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
         <v>C</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="19">
+      <c r="M10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -7036,9 +6669,13 @@
         <f>VLOOKUP(B11,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="19">
+      <c r="M11" s="20">
+        <f t="shared" si="1"/>
+        <v>896682591.00000024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -7064,16 +6701,20 @@
         <f>IF(K12="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G12,interestRate!$D:$D,Loan!F12,interestRate!$E:$E,Loan!L12))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>222</v>
+      <c r="K12" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(B12,Customer!$A$2:$F$26,6)</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13" s="19">
+      <c r="M12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -7113,9 +6754,13 @@
         <f>VLOOKUP(B13,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="19">
+      <c r="M13" s="20">
+        <f t="shared" si="1"/>
+        <v>486153759.00000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -7155,9 +6800,13 @@
         <f>VLOOKUP(B14,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="19">
+      <c r="M14" s="20">
+        <f t="shared" si="1"/>
+        <v>4992000000.000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -7197,9 +6846,13 @@
         <f>VLOOKUP(B15,Customer!$A$2:$F$26,6)</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="19">
+      <c r="M15" s="20">
+        <f t="shared" si="1"/>
+        <v>6576000000.0000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -7239,9 +6892,13 @@
         <f>VLOOKUP(B16,Customer!$A$2:$F$26,6)</f>
         <v>C</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17" s="19">
+      <c r="M16" s="20">
+        <f t="shared" si="1"/>
+        <v>4154000000.000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -7281,9 +6938,13 @@
         <f>VLOOKUP(B17,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="19">
+      <c r="M17" s="20">
+        <f t="shared" si="1"/>
+        <v>4704000000.000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -7309,16 +6970,20 @@
         <f>IF(K18="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G18,interestRate!$D:$D,Loan!F18,interestRate!$E:$E,Loan!L18))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>222</v>
+      <c r="K18" s="14" t="s">
+        <v>216</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(B18,Customer!$A$2:$F$26,6)</f>
         <v>NA</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="19">
+      <c r="M18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -7358,9 +7023,13 @@
         <f>VLOOKUP(B19,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="19">
+      <c r="M19" s="20">
+        <f t="shared" si="1"/>
+        <v>2052000000.0000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="4">
@@ -7400,9 +7069,13 @@
         <f>VLOOKUP(B20,Customer!$A$2:$F$26,6)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21" s="19">
+      <c r="M20" s="20">
+        <f t="shared" si="1"/>
+        <v>3348000000.000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="4">
@@ -7438,6 +7111,10 @@
       <c r="L21" t="str">
         <f>VLOOKUP(B21,Customer!$A$2:$F$26,6)</f>
         <v>B</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" si="1"/>
+        <v>234000000.00000006</v>
       </c>
     </row>
   </sheetData>
@@ -7455,7 +7132,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -7469,7 +7146,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B1" t="s">
@@ -7484,13 +7161,13 @@
       <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>208</v>
+      <c r="F1" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>76</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -7504,7 +7181,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -7541,7 +7218,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -7578,7 +7255,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -7615,7 +7292,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -7652,7 +7329,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -7689,7 +7366,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -7726,7 +7403,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -7763,7 +7440,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -7800,7 +7477,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -7837,7 +7514,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -7874,7 +7551,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -7911,7 +7588,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -7948,7 +7625,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -7985,7 +7662,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -8022,7 +7699,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -8059,7 +7736,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -8096,7 +7773,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -8133,7 +7810,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -8170,7 +7847,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -8207,7 +7884,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -8244,7 +7921,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -8281,7 +7958,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -8318,7 +7995,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -8355,7 +8032,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -8392,7 +8069,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -8429,7 +8106,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -8466,7 +8143,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -8503,7 +8180,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -8540,7 +8217,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -8577,7 +8254,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -8614,7 +8291,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -8651,7 +8328,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -8688,7 +8365,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="19">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -8725,7 +8402,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="19">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -8762,7 +8439,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="19">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -8799,7 +8476,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="19">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -8836,7 +8513,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="19">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -8873,7 +8550,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="19">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -8910,7 +8587,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="19">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -8947,7 +8624,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="19">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -9005,8 +8682,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>213</v>
+      <c r="A1" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>83</v>
@@ -9050,8 +8727,8 @@
       <c r="A4" s="5">
         <v>44926</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>211</v>
+      <c r="B4" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>80</v>
@@ -9064,8 +8741,8 @@
       <c r="A5" s="5">
         <v>44926</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>214</v>
+      <c r="B5" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>80</v>
@@ -9078,8 +8755,8 @@
       <c r="A6" s="5">
         <v>44926</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>215</v>
+      <c r="B6" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>80</v>
@@ -9092,7 +8769,7 @@
       <c r="A7" s="5">
         <v>44926</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -9106,8 +8783,8 @@
       <c r="A8" s="5">
         <v>44926</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>216</v>
+      <c r="B8" s="13" t="s">
+        <v>210</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>80</v>
@@ -9120,8 +8797,8 @@
       <c r="A9" s="5">
         <v>44926</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>217</v>
+      <c r="B9" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>80</v>
@@ -9134,8 +8811,8 @@
       <c r="A10" s="5">
         <v>44926</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>218</v>
+      <c r="B10" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>80</v>
@@ -9148,8 +8825,8 @@
       <c r="A11" s="5">
         <v>44926</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>219</v>
+      <c r="B11" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>80</v>
@@ -9162,8 +8839,8 @@
       <c r="A12" s="5">
         <v>44926</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>220</v>
+      <c r="B12" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>80</v>
@@ -9176,8 +8853,8 @@
       <c r="A13" s="5">
         <v>44926</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>221</v>
+      <c r="B13" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>80</v>
@@ -9210,17 +8887,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>213</v>
+      <c r="A1" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -9237,7 +8914,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -9257,7 +8934,7 @@
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -9278,7 +8955,7 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -9299,7 +8976,7 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -9320,7 +8997,7 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -9341,7 +9018,7 @@
         <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -9362,7 +9039,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -9383,7 +9060,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D9">
         <v>36</v>
@@ -9404,7 +9081,7 @@
         <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D10">
         <v>48</v>
@@ -9425,7 +9102,7 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -9446,7 +9123,7 @@
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D12">
         <v>84</v>
@@ -9467,7 +9144,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -9488,7 +9165,7 @@
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D14">
         <v>240</v>
@@ -9509,7 +9186,7 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D15">
         <v>360</v>
@@ -9530,7 +9207,7 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -9551,7 +9228,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -9572,7 +9249,7 @@
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -9593,7 +9270,7 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -9614,7 +9291,7 @@
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -9635,7 +9312,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -9656,7 +9333,7 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D22">
         <v>24</v>
@@ -9677,7 +9354,7 @@
         <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D23">
         <v>36</v>
@@ -9698,7 +9375,7 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D24">
         <v>48</v>
@@ -9719,7 +9396,7 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -9740,7 +9417,7 @@
         <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D26">
         <v>84</v>
@@ -9761,7 +9438,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D27">
         <v>120</v>
@@ -9782,7 +9459,7 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D28">
         <v>240</v>
@@ -9803,7 +9480,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D29">
         <v>360</v>
@@ -9824,12 +9501,12 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="6">
@@ -9845,12 +9522,12 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="6">
@@ -9866,12 +9543,12 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D32">
         <v>9</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="6">
@@ -9887,12 +9564,12 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="6">
@@ -9908,12 +9585,12 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D34">
         <v>15</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="6">
@@ -9929,12 +9606,12 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D35">
         <v>18</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="6">
@@ -9950,12 +9627,12 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="6">
@@ -9971,12 +9648,12 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="6">
@@ -9992,12 +9669,12 @@
         <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D38">
         <v>48</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="6">
@@ -10013,12 +9690,12 @@
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D39">
         <v>60</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="6">
@@ -10034,12 +9711,12 @@
         <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D40">
         <v>84</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="6">
@@ -10055,12 +9732,12 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D41">
         <v>120</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="6">
@@ -10076,12 +9753,12 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D42">
         <v>240</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="6">
@@ -10097,12 +9774,12 @@
         <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D43">
         <v>360</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="6">
@@ -10114,11 +9791,11 @@
       <c r="A44" s="5">
         <v>44926</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -10134,11 +9811,11 @@
       <c r="A45" s="5">
         <v>44926</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -10155,11 +9832,11 @@
       <c r="A46" s="5">
         <v>44926</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -10176,11 +9853,11 @@
       <c r="A47" s="5">
         <v>44926</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D47">
         <v>12</v>
@@ -10197,11 +9874,11 @@
       <c r="A48" s="5">
         <v>44926</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -10218,11 +9895,11 @@
       <c r="A49" s="5">
         <v>44926</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D49">
         <v>18</v>
@@ -10239,11 +9916,11 @@
       <c r="A50" s="5">
         <v>44926</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -10260,11 +9937,11 @@
       <c r="A51" s="5">
         <v>44926</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D51">
         <v>36</v>
@@ -10281,11 +9958,11 @@
       <c r="A52" s="5">
         <v>44926</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D52">
         <v>48</v>
@@ -10302,11 +9979,11 @@
       <c r="A53" s="5">
         <v>44926</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D53">
         <v>60</v>
@@ -10323,11 +10000,11 @@
       <c r="A54" s="5">
         <v>44926</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D54">
         <v>84</v>
@@ -10344,11 +10021,11 @@
       <c r="A55" s="5">
         <v>44926</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D55">
         <v>120</v>
@@ -10365,11 +10042,11 @@
       <c r="A56" s="5">
         <v>44926</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D56">
         <v>240</v>
@@ -10386,11 +10063,11 @@
       <c r="A57" s="5">
         <v>44926</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D57">
         <v>360</v>
@@ -10407,11 +10084,11 @@
       <c r="A58" s="5">
         <v>44926</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -10428,11 +10105,11 @@
       <c r="A59" s="5">
         <v>44926</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -10449,11 +10126,11 @@
       <c r="A60" s="5">
         <v>44926</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -10470,11 +10147,11 @@
       <c r="A61" s="5">
         <v>44926</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -10491,11 +10168,11 @@
       <c r="A62" s="5">
         <v>44926</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D62">
         <v>15</v>
@@ -10512,11 +10189,11 @@
       <c r="A63" s="5">
         <v>44926</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D63">
         <v>18</v>
@@ -10533,11 +10210,11 @@
       <c r="A64" s="5">
         <v>44926</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -10554,11 +10231,11 @@
       <c r="A65" s="5">
         <v>44926</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D65">
         <v>36</v>
@@ -10575,11 +10252,11 @@
       <c r="A66" s="5">
         <v>44926</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D66">
         <v>48</v>
@@ -10596,11 +10273,11 @@
       <c r="A67" s="5">
         <v>44926</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D67">
         <v>60</v>
@@ -10617,11 +10294,11 @@
       <c r="A68" s="5">
         <v>44926</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D68">
         <v>84</v>
@@ -10638,11 +10315,11 @@
       <c r="A69" s="5">
         <v>44926</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D69">
         <v>120</v>
@@ -10659,11 +10336,11 @@
       <c r="A70" s="5">
         <v>44926</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D70">
         <v>240</v>
@@ -10680,11 +10357,11 @@
       <c r="A71" s="5">
         <v>44926</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D71">
         <v>360</v>
@@ -10701,16 +10378,16 @@
       <c r="A72" s="5">
         <v>44926</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="6">
@@ -10722,16 +10399,16 @@
       <c r="A73" s="5">
         <v>44926</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D73">
         <v>6</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="6">
@@ -10743,16 +10420,16 @@
       <c r="A74" s="5">
         <v>44926</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D74">
         <v>9</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="6">
@@ -10764,16 +10441,16 @@
       <c r="A75" s="5">
         <v>44926</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D75">
         <v>12</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="6">
@@ -10785,16 +10462,16 @@
       <c r="A76" s="5">
         <v>44926</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D76">
         <v>15</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="6">
@@ -10806,16 +10483,16 @@
       <c r="A77" s="5">
         <v>44926</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D77">
         <v>18</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="6">
@@ -10827,16 +10504,16 @@
       <c r="A78" s="5">
         <v>44926</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D78">
         <v>24</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="6">
@@ -10848,16 +10525,16 @@
       <c r="A79" s="5">
         <v>44926</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D79">
         <v>36</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="6">
@@ -10869,16 +10546,16 @@
       <c r="A80" s="5">
         <v>44926</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D80">
         <v>48</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="6">
@@ -10890,16 +10567,16 @@
       <c r="A81" s="5">
         <v>44926</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D81">
         <v>60</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="6">
@@ -10911,16 +10588,16 @@
       <c r="A82" s="5">
         <v>44926</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D82">
         <v>84</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="6">
@@ -10932,16 +10609,16 @@
       <c r="A83" s="5">
         <v>44926</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D83">
         <v>120</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="6">
@@ -10953,16 +10630,16 @@
       <c r="A84" s="5">
         <v>44926</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D84">
         <v>240</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="6">
@@ -10974,16 +10651,16 @@
       <c r="A85" s="5">
         <v>44926</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D85">
         <v>360</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="6">
@@ -10995,11 +10672,11 @@
       <c r="A86" s="5">
         <v>44926</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>210</v>
+      <c r="B86" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -11012,11 +10689,11 @@
       <c r="A87" s="5">
         <v>44926</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>210</v>
+      <c r="B87" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -11030,11 +10707,11 @@
       <c r="A88" s="5">
         <v>44926</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>210</v>
+      <c r="B88" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D88">
         <v>9</v>
@@ -11048,11 +10725,11 @@
       <c r="A89" s="5">
         <v>44926</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>210</v>
+      <c r="B89" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -11066,11 +10743,11 @@
       <c r="A90" s="5">
         <v>44926</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>210</v>
+      <c r="B90" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D90">
         <v>15</v>
@@ -11084,11 +10761,11 @@
       <c r="A91" s="5">
         <v>44926</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>210</v>
+      <c r="B91" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D91">
         <v>18</v>
@@ -11102,11 +10779,11 @@
       <c r="A92" s="5">
         <v>44926</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>210</v>
+      <c r="B92" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D92">
         <v>24</v>
@@ -11120,11 +10797,11 @@
       <c r="A93" s="5">
         <v>44926</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>210</v>
+      <c r="B93" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D93">
         <v>36</v>
@@ -11138,11 +10815,11 @@
       <c r="A94" s="5">
         <v>44926</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>210</v>
+      <c r="B94" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D94">
         <v>48</v>
@@ -11156,11 +10833,11 @@
       <c r="A95" s="5">
         <v>44926</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>210</v>
+      <c r="B95" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D95">
         <v>60</v>
@@ -11174,11 +10851,11 @@
       <c r="A96" s="5">
         <v>44926</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>210</v>
+      <c r="C96" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -11191,11 +10868,11 @@
       <c r="A97" s="5">
         <v>44926</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>210</v>
+      <c r="C97" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -11208,11 +10885,11 @@
       <c r="A98" s="5">
         <v>44926</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>210</v>
+      <c r="C98" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D98">
         <v>9</v>
@@ -11225,11 +10902,11 @@
       <c r="A99" s="5">
         <v>44926</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>210</v>
+      <c r="C99" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D99">
         <v>12</v>
@@ -11242,11 +10919,11 @@
       <c r="A100" s="5">
         <v>44926</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>210</v>
+      <c r="C100" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D100">
         <v>15</v>
@@ -11259,11 +10936,11 @@
       <c r="A101" s="5">
         <v>44926</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>210</v>
+      <c r="C101" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D101">
         <v>18</v>
@@ -11276,11 +10953,11 @@
       <c r="A102" s="5">
         <v>44926</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>210</v>
+      <c r="C102" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -11293,11 +10970,11 @@
       <c r="A103" s="5">
         <v>44926</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>210</v>
+      <c r="C103" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D103">
         <v>36</v>
@@ -11310,11 +10987,11 @@
       <c r="A104" s="5">
         <v>44926</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>210</v>
+      <c r="C104" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D104">
         <v>48</v>
@@ -11327,11 +11004,11 @@
       <c r="A105" s="5">
         <v>44926</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>210</v>
+      <c r="C105" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D105">
         <v>60</v>
@@ -11344,11 +11021,11 @@
       <c r="A106" s="5">
         <v>44926</v>
       </c>
-      <c r="B106" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>210</v>
+      <c r="B106" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -11361,11 +11038,11 @@
       <c r="A107" s="5">
         <v>44926</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>210</v>
+      <c r="B107" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -11378,11 +11055,11 @@
       <c r="A108" s="5">
         <v>44926</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>210</v>
+      <c r="B108" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -11395,11 +11072,11 @@
       <c r="A109" s="5">
         <v>44926</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>210</v>
+      <c r="B109" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -11412,11 +11089,11 @@
       <c r="A110" s="5">
         <v>44926</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>210</v>
+      <c r="B110" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D110">
         <v>15</v>
@@ -11429,11 +11106,11 @@
       <c r="A111" s="5">
         <v>44926</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>210</v>
+      <c r="B111" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D111">
         <v>18</v>
@@ -11446,11 +11123,11 @@
       <c r="A112" s="5">
         <v>44926</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>210</v>
+      <c r="B112" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D112">
         <v>24</v>
@@ -11463,11 +11140,11 @@
       <c r="A113" s="5">
         <v>44926</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>210</v>
+      <c r="B113" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D113">
         <v>36</v>
@@ -11480,11 +11157,11 @@
       <c r="A114" s="5">
         <v>44926</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>210</v>
+      <c r="B114" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D114">
         <v>48</v>
@@ -11497,11 +11174,11 @@
       <c r="A115" s="5">
         <v>44926</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>210</v>
+      <c r="B115" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D115">
         <v>60</v>
@@ -11514,11 +11191,11 @@
       <c r="A116" s="5">
         <v>44926</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>212</v>
+      <c r="B116" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F116" s="6">
         <v>5.0000000000000001E-3</v>
@@ -11528,11 +11205,11 @@
       <c r="A117" s="5">
         <v>44926</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>212</v>
+      <c r="C117" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -11542,11 +11219,11 @@
       <c r="A118" s="5">
         <v>44926</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>212</v>
+      <c r="B118" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F118" s="6">
         <v>4.0000000000000001E-3</v>
@@ -11556,11 +11233,11 @@
       <c r="A119" s="5">
         <v>44926</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>212</v>
+      <c r="B119" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F119" s="6">
         <v>1E-3</v>
@@ -11570,11 +11247,11 @@
       <c r="A120" s="5">
         <v>44926</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>212</v>
+      <c r="B120" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F120" s="6">
         <v>1E-3</v>
@@ -11584,11 +11261,11 @@
       <c r="A121" s="5">
         <v>44926</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>212</v>
+      <c r="C121" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F121" s="6">
         <v>1E-3</v>
@@ -11598,11 +11275,11 @@
       <c r="A122" s="5">
         <v>44926</v>
       </c>
-      <c r="B122" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>212</v>
+      <c r="B122" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F122" s="6">
         <v>1E-3</v>
@@ -11612,11 +11289,11 @@
       <c r="A123" s="5">
         <v>44926</v>
       </c>
-      <c r="B123" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>212</v>
+      <c r="B123" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F123" s="6">
         <v>2E-3</v>
@@ -11626,11 +11303,11 @@
       <c r="A124" s="5">
         <v>44926</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C124" s="12" t="s">
+      <c r="B124" s="13" t="s">
         <v>212</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F124" s="6">
         <v>4.0000000000000001E-3</v>
@@ -11640,11 +11317,11 @@
       <c r="A125" s="5">
         <v>44926</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>212</v>
+      <c r="B125" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F125" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11654,11 +11331,11 @@
       <c r="A126" s="5">
         <v>44926</v>
       </c>
-      <c r="B126" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>212</v>
+      <c r="B126" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F126" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11668,11 +11345,11 @@
       <c r="A127" s="5">
         <v>44926</v>
       </c>
-      <c r="B127" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>212</v>
+      <c r="B127" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F127" s="6">
         <v>1E-3</v>
